--- a/SuppXLS/Scen_Peak_RSV-FLX.xlsx
+++ b/SuppXLS/Scen_Peak_RSV-FLX.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SuppXLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAA6505-7DC0-4077-921D-E0165E2323A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{BCAA6505-7DC0-4077-921D-E0165E2323A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93BB6CFE-A933-424A-8731-BBF0CC3079D0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="2535" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Peak_RSV-FLX" sheetId="2" r:id="rId1"/>
@@ -149,19 +149,22 @@
     <t>COM_PEAK</t>
   </si>
   <si>
-    <t>SD</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
-    <t>REG1</t>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>DayNite</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="\Te\x\t"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -261,7 +264,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -277,12 +280,13 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Per cent" xfId="3" builtinId="5"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -701,7 +705,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,7 +766,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>3</v>
@@ -815,7 +819,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -839,18 +843,18 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="7" t="s">
-        <v>21</v>
+      <c r="B6" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E6">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="I6" s="9">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -864,8 +868,8 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="7" t="s">
-        <v>21</v>
+      <c r="B7" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
@@ -875,7 +879,7 @@
         <v>2050</v>
       </c>
       <c r="I7" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>

--- a/SuppXLS/Scen_Peak_RSV-FLX.xlsx
+++ b/SuppXLS/Scen_Peak_RSV-FLX.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SuppXLS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{BCAA6505-7DC0-4077-921D-E0165E2323A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93BB6CFE-A933-424A-8731-BBF0CC3079D0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58ED55F-3A96-42D4-A037-110D120F92B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="2535" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Peak_RSV-FLX" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>DayNite</t>
+  </si>
+  <si>
+    <t>COM_PKFLX is not necessary since the time sclice in the modeling is 24 hrs</t>
   </si>
 </sst>
 </file>
@@ -286,7 +289,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -307,13 +310,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>97155</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -702,35 +705,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="11" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
@@ -743,94 +746,81 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8">
-        <v>1</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>21</v>
-      </c>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="I5" s="8">
+        <v>1</v>
+      </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -841,21 +831,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="11" t="s">
-        <v>23</v>
-      </c>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6">
-        <v>2025</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0.1</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -866,7 +855,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="11" t="s">
         <v>23</v>
@@ -876,9 +865,9 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>2050</v>
-      </c>
-      <c r="I7" s="10">
+        <v>2022</v>
+      </c>
+      <c r="I7" s="9">
         <v>0.1</v>
       </c>
       <c r="J7" s="7"/>
@@ -891,18 +880,48 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="I8" s="8"/>
+      <c r="D8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>2050</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.1</v>
+      </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SuppXLS/Scen_Peak_RSV-FLX.xlsx
+++ b/SuppXLS/Scen_Peak_RSV-FLX.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58ED55F-3A96-42D4-A037-110D120F92B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22D4A67-0D64-4833-ABDD-07BA6360A3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,7 +267,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -284,6 +284,9 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,7 +711,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -746,66 +749,73 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>13</v>
-      </c>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>

--- a/SuppXLS/Scen_Peak_RSV-FLX.xlsx
+++ b/SuppXLS/Scen_Peak_RSV-FLX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22D4A67-0D64-4833-ABDD-07BA6360A3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB6DE19-ABD0-4A38-A58F-1AC1DDC76971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,7 +267,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -284,9 +284,6 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -313,13 +310,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>97155</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -708,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -800,37 +797,43 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+      <c r="A5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="8">
-        <v>1</v>
-      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -842,19 +845,20 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="7"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>2022</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.1</v>
+      </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -875,9 +879,9 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>2022</v>
-      </c>
-      <c r="I7" s="9">
+        <v>2050</v>
+      </c>
+      <c r="I7" s="10">
         <v>0.1</v>
       </c>
       <c r="J7" s="7"/>
@@ -891,45 +895,20 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8">
-        <v>2050</v>
-      </c>
-      <c r="I8" s="10">
-        <v>0.1</v>
-      </c>
+      <c r="D8" s="7"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="P8" s="7"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>24</v>
       </c>
     </row>
